--- a/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/PrescaleTable-L1Menu_Collisions2018_v2_1_0-DedicatedRateStudy.xlsx
+++ b/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/PrescaleTable-L1Menu_Collisions2018_v2_1_0-DedicatedRateStudy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DB7C5F-59B8-5B42-BEB1-2571B8AA6E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6420CBA5-F16D-4840-B6DC-6225C78975F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="-17500" windowWidth="28620" windowHeight="16720" xr2:uid="{D43503D0-D942-054C-A252-8EF60B2ECDE6}"/>
+    <workbookView xWindow="-380" yWindow="500" windowWidth="28620" windowHeight="16600" xr2:uid="{D43503D0-D942-054C-A252-8EF60B2ECDE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46014C27-F11A-2A41-BE5F-BBB4784EB01D}">
   <dimension ref="A1:M344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="J313" sqref="J313"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13697,34 +13697,34 @@
         <v>0</v>
       </c>
       <c r="D299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M299" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
@@ -13738,34 +13738,34 @@
         <v>0</v>
       </c>
       <c r="D300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
@@ -13779,34 +13779,34 @@
         <v>0</v>
       </c>
       <c r="D301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
@@ -13820,34 +13820,34 @@
         <v>0</v>
       </c>
       <c r="D302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="F302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M302" s="1">
-        <v>4000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
@@ -13902,34 +13902,34 @@
         <v>0</v>
       </c>
       <c r="D304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.2">
@@ -13943,34 +13943,34 @@
         <v>0</v>
       </c>
       <c r="D305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">

--- a/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/PrescaleTable-L1Menu_Collisions2018_v2_1_0-DedicatedRateStudy.xlsx
+++ b/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/PrescaleTable-L1Menu_Collisions2018_v2_1_0-DedicatedRateStudy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6420CBA5-F16D-4840-B6DC-6225C78975F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709743F5-1DF5-E24E-BCD6-EB929B2055D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-380" yWindow="500" windowWidth="28620" windowHeight="16600" xr2:uid="{D43503D0-D942-054C-A252-8EF60B2ECDE6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28620" windowHeight="16600" xr2:uid="{D43503D0-D942-054C-A252-8EF60B2ECDE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,6 +1106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,12 +1143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,18 +1466,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46014C27-F11A-2A41-BE5F-BBB4784EB01D}">
-  <dimension ref="A1:M344"/>
+  <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="H348" sqref="H348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1503,7 @@
       <c r="H1" s="3">
         <v>1.5999999999999999E+34</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="6">
         <v>1.5000000000000001E+34</v>
       </c>
       <c r="J1" s="3">
@@ -1508,8 +1518,14 @@
       <c r="M1" s="3">
         <v>1.1000000000000001E+34</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="3">
+        <v>9.9999999999999995E+33</v>
+      </c>
+      <c r="O1" s="3">
+        <v>9.0000000000000001E+33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1549,8 +1565,14 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1590,8 +1612,14 @@
       <c r="M3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1631,8 +1659,14 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1672,8 +1706,14 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1713,8 +1753,14 @@
       <c r="M6" s="1">
         <v>63000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="1">
+        <v>63000</v>
+      </c>
+      <c r="O6" s="1">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1754,8 +1800,14 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1795,8 +1847,14 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1836,8 +1894,14 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1877,8 +1941,14 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1918,8 +1988,14 @@
       <c r="M11" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="1">
+        <v>22000</v>
+      </c>
+      <c r="O11" s="1">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1959,8 +2035,14 @@
       <c r="M12" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="1">
+        <v>1700</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2000,8 +2082,14 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2041,8 +2129,14 @@
       <c r="M14" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="1">
+        <v>200</v>
+      </c>
+      <c r="O14" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2082,8 +2176,14 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2123,8 +2223,14 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2164,8 +2270,14 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2205,8 +2317,14 @@
       <c r="M18" s="1">
         <v>1300</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="1">
+        <v>1300</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2246,8 +2364,14 @@
       <c r="M19" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="1">
+        <v>210</v>
+      </c>
+      <c r="O19" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2287,8 +2411,14 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2319,8 +2449,8 @@
       <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="K21" s="4">
-        <v>0</v>
+      <c r="K21" s="1">
+        <v>1</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
@@ -2328,8 +2458,14 @@
       <c r="M21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2369,8 +2505,14 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2410,8 +2552,14 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2451,8 +2599,14 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2492,8 +2646,14 @@
       <c r="M25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2533,8 +2693,14 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2574,8 +2740,14 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2615,8 +2787,14 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2656,8 +2834,14 @@
       <c r="M29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2697,8 +2881,14 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2738,8 +2928,14 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2779,8 +2975,14 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2820,8 +3022,14 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2861,8 +3069,14 @@
       <c r="M34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>39</v>
       </c>
@@ -2902,8 +3116,14 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>40</v>
       </c>
@@ -2943,8 +3163,14 @@
       <c r="M36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41</v>
       </c>
@@ -2984,8 +3210,14 @@
       <c r="M37" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="1">
+        <v>1500</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42</v>
       </c>
@@ -3025,8 +3257,14 @@
       <c r="M38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43</v>
       </c>
@@ -3066,8 +3304,14 @@
       <c r="M39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44</v>
       </c>
@@ -3107,8 +3351,14 @@
       <c r="M40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45</v>
       </c>
@@ -3148,8 +3398,14 @@
       <c r="M41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>46</v>
       </c>
@@ -3189,8 +3445,14 @@
       <c r="M42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>47</v>
       </c>
@@ -3230,8 +3492,14 @@
       <c r="M43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>48</v>
       </c>
@@ -3271,8 +3539,14 @@
       <c r="M44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>49</v>
       </c>
@@ -3312,8 +3586,14 @@
       <c r="M45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>50</v>
       </c>
@@ -3353,8 +3633,14 @@
       <c r="M46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>51</v>
       </c>
@@ -3394,8 +3680,14 @@
       <c r="M47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>53</v>
       </c>
@@ -3435,8 +3727,14 @@
       <c r="M48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>54</v>
       </c>
@@ -3476,8 +3774,14 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>55</v>
       </c>
@@ -3517,8 +3821,14 @@
       <c r="M50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>56</v>
       </c>
@@ -3558,8 +3868,14 @@
       <c r="M51" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="1">
+        <v>450</v>
+      </c>
+      <c r="O51" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>57</v>
       </c>
@@ -3599,8 +3915,14 @@
       <c r="M52" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="1">
+        <v>2</v>
+      </c>
+      <c r="O52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>58</v>
       </c>
@@ -3640,8 +3962,14 @@
       <c r="M53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>59</v>
       </c>
@@ -3681,8 +4009,14 @@
       <c r="M54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>60</v>
       </c>
@@ -3722,8 +4056,14 @@
       <c r="M55" s="1">
         <v>700</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="1">
+        <v>700</v>
+      </c>
+      <c r="O55" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>61</v>
       </c>
@@ -3763,8 +4103,14 @@
       <c r="M56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>62</v>
       </c>
@@ -3804,8 +4150,14 @@
       <c r="M57" s="1">
         <v>800</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="1">
+        <v>800</v>
+      </c>
+      <c r="O57" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>63</v>
       </c>
@@ -3845,8 +4197,14 @@
       <c r="M58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>64</v>
       </c>
@@ -3886,8 +4244,14 @@
       <c r="M59" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="1">
+        <v>80</v>
+      </c>
+      <c r="O59" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>65</v>
       </c>
@@ -3927,8 +4291,14 @@
       <c r="M60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>66</v>
       </c>
@@ -3968,8 +4338,14 @@
       <c r="M61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>71</v>
       </c>
@@ -4009,8 +4385,14 @@
       <c r="M62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>72</v>
       </c>
@@ -4050,8 +4432,14 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>73</v>
       </c>
@@ -4091,8 +4479,14 @@
       <c r="M64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>74</v>
       </c>
@@ -4132,8 +4526,14 @@
       <c r="M65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>75</v>
       </c>
@@ -4173,8 +4573,14 @@
       <c r="M66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>76</v>
       </c>
@@ -4214,8 +4620,14 @@
       <c r="M67" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="1">
+        <v>35</v>
+      </c>
+      <c r="O67" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>77</v>
       </c>
@@ -4255,8 +4667,14 @@
       <c r="M68" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="1">
+        <v>35</v>
+      </c>
+      <c r="O68" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>78</v>
       </c>
@@ -4296,8 +4714,14 @@
       <c r="M69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>79</v>
       </c>
@@ -4337,8 +4761,14 @@
       <c r="M70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>80</v>
       </c>
@@ -4378,8 +4808,14 @@
       <c r="M71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>82</v>
       </c>
@@ -4419,8 +4855,14 @@
       <c r="M72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>83</v>
       </c>
@@ -4460,8 +4902,14 @@
       <c r="M73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>84</v>
       </c>
@@ -4501,8 +4949,14 @@
       <c r="M74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>85</v>
       </c>
@@ -4542,8 +4996,14 @@
       <c r="M75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>86</v>
       </c>
@@ -4583,8 +5043,14 @@
       <c r="M76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>88</v>
       </c>
@@ -4624,8 +5090,14 @@
       <c r="M77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>89</v>
       </c>
@@ -4665,8 +5137,14 @@
       <c r="M78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>90</v>
       </c>
@@ -4706,8 +5184,14 @@
       <c r="M79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="1">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>96</v>
       </c>
@@ -4747,8 +5231,14 @@
       <c r="M80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>97</v>
       </c>
@@ -4788,8 +5278,14 @@
       <c r="M81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="1">
+        <v>1</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>98</v>
       </c>
@@ -4829,8 +5325,14 @@
       <c r="M82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>99</v>
       </c>
@@ -4870,8 +5372,14 @@
       <c r="M83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>100</v>
       </c>
@@ -4911,8 +5419,14 @@
       <c r="M84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>101</v>
       </c>
@@ -4952,8 +5466,14 @@
       <c r="M85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>102</v>
       </c>
@@ -4993,8 +5513,14 @@
       <c r="M86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>104</v>
       </c>
@@ -5034,8 +5560,14 @@
       <c r="M87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="1">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>105</v>
       </c>
@@ -5075,8 +5607,14 @@
       <c r="M88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>106</v>
       </c>
@@ -5116,8 +5654,14 @@
       <c r="M89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="1">
+        <v>1</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>107</v>
       </c>
@@ -5157,8 +5701,14 @@
       <c r="M90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="1">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>109</v>
       </c>
@@ -5198,8 +5748,14 @@
       <c r="M91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>110</v>
       </c>
@@ -5239,8 +5795,14 @@
       <c r="M92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="1">
+        <v>1</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>112</v>
       </c>
@@ -5280,8 +5842,14 @@
       <c r="M93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="1">
+        <v>1</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>113</v>
       </c>
@@ -5321,8 +5889,14 @@
       <c r="M94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>119</v>
       </c>
@@ -5362,8 +5936,14 @@
       <c r="M95" s="1">
         <v>11000</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="1">
+        <v>11000</v>
+      </c>
+      <c r="O95" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>121</v>
       </c>
@@ -5403,8 +5983,14 @@
       <c r="M96" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="1">
+        <v>400</v>
+      </c>
+      <c r="O96" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>122</v>
       </c>
@@ -5444,8 +6030,14 @@
       <c r="M97" s="1">
         <v>256</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="1">
+        <v>256</v>
+      </c>
+      <c r="O97" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>123</v>
       </c>
@@ -5485,8 +6077,14 @@
       <c r="M98" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="1">
+        <v>52</v>
+      </c>
+      <c r="O98" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>124</v>
       </c>
@@ -5526,8 +6124,14 @@
       <c r="M99" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="1">
+        <v>13</v>
+      </c>
+      <c r="O99" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>125</v>
       </c>
@@ -5567,8 +6171,14 @@
       <c r="M100" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="1">
+        <v>3</v>
+      </c>
+      <c r="O100" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>126</v>
       </c>
@@ -5608,8 +6218,14 @@
       <c r="M101" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="1">
+        <v>3</v>
+      </c>
+      <c r="O101" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>128</v>
       </c>
@@ -5649,8 +6265,14 @@
       <c r="M102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="1">
+        <v>1</v>
+      </c>
+      <c r="O102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>129</v>
       </c>
@@ -5690,8 +6312,14 @@
       <c r="M103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="1">
+        <v>1</v>
+      </c>
+      <c r="O103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>131</v>
       </c>
@@ -5731,8 +6359,14 @@
       <c r="M104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="1">
+        <v>1</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>132</v>
       </c>
@@ -5772,8 +6406,14 @@
       <c r="M105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="1">
+        <v>1</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>134</v>
       </c>
@@ -5813,8 +6453,14 @@
       <c r="M106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>135</v>
       </c>
@@ -5854,8 +6500,14 @@
       <c r="M107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="1">
+        <v>1</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>136</v>
       </c>
@@ -5895,8 +6547,14 @@
       <c r="M108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="1">
+        <v>1</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>142</v>
       </c>
@@ -5936,8 +6594,14 @@
       <c r="M109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="1">
+        <v>1</v>
+      </c>
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>143</v>
       </c>
@@ -5977,8 +6641,14 @@
       <c r="M110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="1">
+        <v>1</v>
+      </c>
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>145</v>
       </c>
@@ -6018,8 +6688,14 @@
       <c r="M111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>146</v>
       </c>
@@ -6059,8 +6735,14 @@
       <c r="M112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="1">
+        <v>1</v>
+      </c>
+      <c r="O112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>147</v>
       </c>
@@ -6100,8 +6782,14 @@
       <c r="M113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="1">
+        <v>1</v>
+      </c>
+      <c r="O113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>148</v>
       </c>
@@ -6141,8 +6829,14 @@
       <c r="M114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="1">
+        <v>1</v>
+      </c>
+      <c r="O114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>150</v>
       </c>
@@ -6182,8 +6876,14 @@
       <c r="M115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="1">
+        <v>1</v>
+      </c>
+      <c r="O115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>151</v>
       </c>
@@ -6223,8 +6923,14 @@
       <c r="M116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="1">
+        <v>1</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>152</v>
       </c>
@@ -6264,8 +6970,14 @@
       <c r="M117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="1">
+        <v>1</v>
+      </c>
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>159</v>
       </c>
@@ -6305,8 +7017,14 @@
       <c r="M118" s="1">
         <v>44000</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="1">
+        <v>44000</v>
+      </c>
+      <c r="O118" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>160</v>
       </c>
@@ -6346,8 +7064,14 @@
       <c r="M119" s="1">
         <v>7600</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="1">
+        <v>7600</v>
+      </c>
+      <c r="O119" s="1">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>161</v>
       </c>
@@ -6387,8 +7111,14 @@
       <c r="M120" s="1">
         <v>1350</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="1">
+        <v>1350</v>
+      </c>
+      <c r="O120" s="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>162</v>
       </c>
@@ -6428,8 +7158,14 @@
       <c r="M121" s="1">
         <v>780</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="1">
+        <v>780</v>
+      </c>
+      <c r="O121" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>163</v>
       </c>
@@ -6469,8 +7205,14 @@
       <c r="M122" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="1">
+        <v>45</v>
+      </c>
+      <c r="O122" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>164</v>
       </c>
@@ -6510,8 +7252,14 @@
       <c r="M123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>165</v>
       </c>
@@ -6551,8 +7299,14 @@
       <c r="M124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>166</v>
       </c>
@@ -6592,8 +7346,14 @@
       <c r="M125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="1">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>167</v>
       </c>
@@ -6633,8 +7393,14 @@
       <c r="M126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="1">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>168</v>
       </c>
@@ -6665,17 +7431,23 @@
       <c r="J127" s="1">
         <v>1</v>
       </c>
-      <c r="K127" s="4">
-        <v>0</v>
+      <c r="K127" s="1">
+        <v>1</v>
       </c>
       <c r="L127" s="4">
         <v>0</v>
       </c>
-      <c r="M127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>1</v>
+      </c>
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>169</v>
       </c>
@@ -6709,14 +7481,20 @@
       <c r="K128" s="1">
         <v>1</v>
       </c>
-      <c r="L128" s="4">
-        <v>0</v>
-      </c>
-      <c r="M128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L128" s="1">
+        <v>1</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>1</v>
+      </c>
+      <c r="O128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>170</v>
       </c>
@@ -6756,8 +7534,14 @@
       <c r="M129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="1">
+        <v>1</v>
+      </c>
+      <c r="O129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>171</v>
       </c>
@@ -6797,8 +7581,14 @@
       <c r="M130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="1">
+        <v>1</v>
+      </c>
+      <c r="O130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>172</v>
       </c>
@@ -6838,8 +7628,14 @@
       <c r="M131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="1">
+        <v>1</v>
+      </c>
+      <c r="O131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>173</v>
       </c>
@@ -6879,8 +7675,14 @@
       <c r="M132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>174</v>
       </c>
@@ -6920,8 +7722,14 @@
       <c r="M133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="1">
+        <v>1</v>
+      </c>
+      <c r="O133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>175</v>
       </c>
@@ -6961,8 +7769,14 @@
       <c r="M134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>176</v>
       </c>
@@ -7002,8 +7816,14 @@
       <c r="M135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>177</v>
       </c>
@@ -7043,8 +7863,14 @@
       <c r="M136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>178</v>
       </c>
@@ -7069,14 +7895,14 @@
       <c r="H137" s="4">
         <v>0</v>
       </c>
-      <c r="I137" s="1">
-        <v>1</v>
+      <c r="I137" s="4">
+        <v>0</v>
       </c>
       <c r="J137" s="1">
         <v>1</v>
       </c>
-      <c r="K137" s="4">
-        <v>0</v>
+      <c r="K137" s="1">
+        <v>1</v>
       </c>
       <c r="L137" s="4">
         <v>0</v>
@@ -7084,8 +7910,14 @@
       <c r="M137" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="4">
+        <v>0</v>
+      </c>
+      <c r="O137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>179</v>
       </c>
@@ -7110,14 +7942,14 @@
       <c r="H138" s="4">
         <v>0</v>
       </c>
-      <c r="I138" s="1">
-        <v>1</v>
+      <c r="I138" s="4">
+        <v>0</v>
       </c>
       <c r="J138" s="1">
         <v>1</v>
       </c>
-      <c r="K138" s="4">
-        <v>0</v>
+      <c r="K138" s="1">
+        <v>1</v>
       </c>
       <c r="L138" s="4">
         <v>0</v>
@@ -7125,8 +7957,14 @@
       <c r="M138" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="4">
+        <v>0</v>
+      </c>
+      <c r="O138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>180</v>
       </c>
@@ -7166,8 +8004,14 @@
       <c r="M139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>181</v>
       </c>
@@ -7192,8 +8036,8 @@
       <c r="H140" s="4">
         <v>0</v>
       </c>
-      <c r="I140" s="1">
-        <v>1</v>
+      <c r="I140" s="4">
+        <v>0</v>
       </c>
       <c r="J140" s="1">
         <v>1</v>
@@ -7204,11 +8048,17 @@
       <c r="L140" s="1">
         <v>1</v>
       </c>
-      <c r="M140" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+      <c r="N140" s="4">
+        <v>0</v>
+      </c>
+      <c r="O140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>182</v>
       </c>
@@ -7248,8 +8098,14 @@
       <c r="M141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>183</v>
       </c>
@@ -7289,8 +8145,14 @@
       <c r="M142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>184</v>
       </c>
@@ -7330,8 +8192,14 @@
       <c r="M143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>185</v>
       </c>
@@ -7371,8 +8239,14 @@
       <c r="M144" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" s="1">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>186</v>
       </c>
@@ -7412,8 +8286,14 @@
       <c r="M145" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="1">
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>187</v>
       </c>
@@ -7453,8 +8333,14 @@
       <c r="M146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" s="1">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>188</v>
       </c>
@@ -7494,8 +8380,14 @@
       <c r="M147" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="1">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>189</v>
       </c>
@@ -7520,23 +8412,29 @@
       <c r="H148" s="1">
         <v>1</v>
       </c>
-      <c r="I148" s="1">
-        <v>1</v>
+      <c r="I148" s="4">
+        <v>0</v>
       </c>
       <c r="J148" s="1">
         <v>1</v>
       </c>
-      <c r="K148" s="4">
-        <v>0</v>
+      <c r="K148" s="1">
+        <v>1</v>
       </c>
       <c r="L148" s="4">
         <v>0</v>
       </c>
-      <c r="M148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M148" s="4">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>1</v>
+      </c>
+      <c r="O148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>190</v>
       </c>
@@ -7561,23 +8459,29 @@
       <c r="H149" s="1">
         <v>1</v>
       </c>
-      <c r="I149" s="1">
-        <v>1</v>
+      <c r="I149" s="4">
+        <v>0</v>
       </c>
       <c r="J149" s="1">
         <v>1</v>
       </c>
-      <c r="K149" s="4">
-        <v>0</v>
+      <c r="K149" s="1">
+        <v>1</v>
       </c>
       <c r="L149" s="4">
         <v>0</v>
       </c>
-      <c r="M149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M149" s="4">
+        <v>0</v>
+      </c>
+      <c r="N149" s="1">
+        <v>1</v>
+      </c>
+      <c r="O149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>191</v>
       </c>
@@ -7602,23 +8506,29 @@
       <c r="H150" s="1">
         <v>1</v>
       </c>
-      <c r="I150" s="1">
-        <v>1</v>
+      <c r="I150" s="4">
+        <v>0</v>
       </c>
       <c r="J150" s="1">
         <v>1</v>
       </c>
-      <c r="K150" s="4">
-        <v>0</v>
+      <c r="K150" s="1">
+        <v>1</v>
       </c>
       <c r="L150" s="4">
         <v>0</v>
       </c>
-      <c r="M150" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M150" s="4">
+        <v>0</v>
+      </c>
+      <c r="N150" s="1">
+        <v>1</v>
+      </c>
+      <c r="O150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>192</v>
       </c>
@@ -7643,8 +8553,8 @@
       <c r="H151" s="1">
         <v>1</v>
       </c>
-      <c r="I151" s="1">
-        <v>1</v>
+      <c r="I151" s="4">
+        <v>0</v>
       </c>
       <c r="J151" s="1">
         <v>1</v>
@@ -7652,14 +8562,20 @@
       <c r="K151" s="1">
         <v>1</v>
       </c>
-      <c r="L151" s="4">
-        <v>0</v>
-      </c>
-      <c r="M151" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L151" s="1">
+        <v>1</v>
+      </c>
+      <c r="M151" s="4">
+        <v>0</v>
+      </c>
+      <c r="N151" s="1">
+        <v>1</v>
+      </c>
+      <c r="O151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>193</v>
       </c>
@@ -7693,14 +8609,20 @@
       <c r="K152" s="1">
         <v>1</v>
       </c>
-      <c r="L152" s="4">
-        <v>0</v>
-      </c>
-      <c r="M152" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L152" s="1">
+        <v>1</v>
+      </c>
+      <c r="M152" s="4">
+        <v>0</v>
+      </c>
+      <c r="N152" s="1">
+        <v>1</v>
+      </c>
+      <c r="O152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>194</v>
       </c>
@@ -7740,8 +8662,14 @@
       <c r="M153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="1">
+        <v>1</v>
+      </c>
+      <c r="O153" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>195</v>
       </c>
@@ -7781,8 +8709,14 @@
       <c r="M154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="1">
+        <v>1</v>
+      </c>
+      <c r="O154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>196</v>
       </c>
@@ -7822,8 +8756,14 @@
       <c r="M155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="1">
+        <v>1</v>
+      </c>
+      <c r="O155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>197</v>
       </c>
@@ -7863,8 +8803,14 @@
       <c r="M156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" s="1">
+        <v>1</v>
+      </c>
+      <c r="O156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>198</v>
       </c>
@@ -7904,8 +8850,14 @@
       <c r="M157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="1">
+        <v>1</v>
+      </c>
+      <c r="O157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>199</v>
       </c>
@@ -7945,8 +8897,14 @@
       <c r="M158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158" s="1">
+        <v>1</v>
+      </c>
+      <c r="O158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>205</v>
       </c>
@@ -7986,8 +8944,14 @@
       <c r="M159" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" s="1">
+        <v>0</v>
+      </c>
+      <c r="O159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>206</v>
       </c>
@@ -8027,8 +8991,14 @@
       <c r="M160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160" s="1">
+        <v>0</v>
+      </c>
+      <c r="O160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>207</v>
       </c>
@@ -8068,8 +9038,14 @@
       <c r="M161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" s="1">
+        <v>0</v>
+      </c>
+      <c r="O161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>208</v>
       </c>
@@ -8109,8 +9085,14 @@
       <c r="M162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" s="1">
+        <v>1</v>
+      </c>
+      <c r="O162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>209</v>
       </c>
@@ -8150,8 +9132,14 @@
       <c r="M163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="1">
+        <v>1</v>
+      </c>
+      <c r="O163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>210</v>
       </c>
@@ -8191,8 +9179,14 @@
       <c r="M164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164" s="1">
+        <v>1</v>
+      </c>
+      <c r="O164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>212</v>
       </c>
@@ -8232,8 +9226,14 @@
       <c r="M165" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" s="1">
+        <v>0</v>
+      </c>
+      <c r="O165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>213</v>
       </c>
@@ -8273,8 +9273,14 @@
       <c r="M166" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" s="1">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>214</v>
       </c>
@@ -8299,8 +9305,8 @@
       <c r="H167" s="1">
         <v>1</v>
       </c>
-      <c r="I167" s="1">
-        <v>1</v>
+      <c r="I167" s="4">
+        <v>0</v>
       </c>
       <c r="J167" s="1">
         <v>1</v>
@@ -8314,8 +9320,14 @@
       <c r="M167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" s="1">
+        <v>1</v>
+      </c>
+      <c r="O167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>215</v>
       </c>
@@ -8355,8 +9367,14 @@
       <c r="M168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" s="1">
+        <v>1</v>
+      </c>
+      <c r="O168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>217</v>
       </c>
@@ -8396,8 +9414,14 @@
       <c r="M169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" s="1">
+        <v>1</v>
+      </c>
+      <c r="O169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>218</v>
       </c>
@@ -8437,8 +9461,14 @@
       <c r="M170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" s="1">
+        <v>1</v>
+      </c>
+      <c r="O170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>224</v>
       </c>
@@ -8478,8 +9508,14 @@
       <c r="M171" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" s="1">
+        <v>0</v>
+      </c>
+      <c r="O171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>225</v>
       </c>
@@ -8519,8 +9555,14 @@
       <c r="M172" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" s="1">
+        <v>0</v>
+      </c>
+      <c r="O172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>226</v>
       </c>
@@ -8560,8 +9602,14 @@
       <c r="M173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" s="1">
+        <v>1</v>
+      </c>
+      <c r="O173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>227</v>
       </c>
@@ -8601,8 +9649,14 @@
       <c r="M174" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174" s="1">
+        <v>1</v>
+      </c>
+      <c r="O174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>228</v>
       </c>
@@ -8642,8 +9696,14 @@
       <c r="M175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" s="1">
+        <v>1</v>
+      </c>
+      <c r="O175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>234</v>
       </c>
@@ -8683,8 +9743,14 @@
       <c r="M176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="1">
+        <v>0</v>
+      </c>
+      <c r="O176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>235</v>
       </c>
@@ -8715,8 +9781,8 @@
       <c r="J177" s="1">
         <v>1</v>
       </c>
-      <c r="K177" s="4">
-        <v>0</v>
+      <c r="K177" s="1">
+        <v>1</v>
       </c>
       <c r="L177" s="4">
         <v>0</v>
@@ -8724,8 +9790,14 @@
       <c r="M177" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="4">
+        <v>0</v>
+      </c>
+      <c r="O177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>236</v>
       </c>
@@ -8762,11 +9834,17 @@
       <c r="L178" s="1">
         <v>1</v>
       </c>
-      <c r="M178" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M178" s="1">
+        <v>1</v>
+      </c>
+      <c r="N178" s="4">
+        <v>0</v>
+      </c>
+      <c r="O178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>238</v>
       </c>
@@ -8806,8 +9884,14 @@
       <c r="M179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="1">
+        <v>0</v>
+      </c>
+      <c r="O179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>239</v>
       </c>
@@ -8832,14 +9916,14 @@
       <c r="H180" s="4">
         <v>0</v>
       </c>
-      <c r="I180" s="1">
-        <v>1</v>
+      <c r="I180" s="4">
+        <v>0</v>
       </c>
       <c r="J180" s="1">
         <v>1</v>
       </c>
-      <c r="K180" s="4">
-        <v>0</v>
+      <c r="K180" s="1">
+        <v>1</v>
       </c>
       <c r="L180" s="4">
         <v>0</v>
@@ -8847,8 +9931,14 @@
       <c r="M180" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="4">
+        <v>0</v>
+      </c>
+      <c r="O180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>240</v>
       </c>
@@ -8882,14 +9972,20 @@
       <c r="K181" s="1">
         <v>1</v>
       </c>
-      <c r="L181" s="4">
-        <v>0</v>
+      <c r="L181" s="1">
+        <v>1</v>
       </c>
       <c r="M181" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="4">
+        <v>0</v>
+      </c>
+      <c r="O181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>241</v>
       </c>
@@ -8926,11 +10022,17 @@
       <c r="L182" s="1">
         <v>1</v>
       </c>
-      <c r="M182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M182" s="1">
+        <v>1</v>
+      </c>
+      <c r="N182" s="4">
+        <v>0</v>
+      </c>
+      <c r="O182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>247</v>
       </c>
@@ -8970,8 +10072,14 @@
       <c r="M183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="1">
+        <v>0</v>
+      </c>
+      <c r="O183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>248</v>
       </c>
@@ -9011,8 +10119,14 @@
       <c r="M184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="1">
+        <v>0</v>
+      </c>
+      <c r="O184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>249</v>
       </c>
@@ -9052,8 +10166,14 @@
       <c r="M185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="1">
+        <v>1</v>
+      </c>
+      <c r="O185" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>250</v>
       </c>
@@ -9093,8 +10213,14 @@
       <c r="M186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" s="1">
+        <v>1</v>
+      </c>
+      <c r="O186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>251</v>
       </c>
@@ -9134,8 +10260,14 @@
       <c r="M187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="1">
+        <v>1</v>
+      </c>
+      <c r="O187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>257</v>
       </c>
@@ -9166,8 +10298,8 @@
       <c r="J188" s="1">
         <v>1</v>
       </c>
-      <c r="K188" s="4">
-        <v>0</v>
+      <c r="K188" s="1">
+        <v>1</v>
       </c>
       <c r="L188" s="4">
         <v>0</v>
@@ -9175,8 +10307,14 @@
       <c r="M188" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="4">
+        <v>0</v>
+      </c>
+      <c r="O188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>258</v>
       </c>
@@ -9213,11 +10351,17 @@
       <c r="L189" s="1">
         <v>1</v>
       </c>
-      <c r="M189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M189" s="1">
+        <v>1</v>
+      </c>
+      <c r="N189" s="4">
+        <v>0</v>
+      </c>
+      <c r="O189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>259</v>
       </c>
@@ -9254,11 +10398,17 @@
       <c r="L190" s="1">
         <v>1</v>
       </c>
-      <c r="M190" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M190" s="1">
+        <v>1</v>
+      </c>
+      <c r="N190" s="4">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>264</v>
       </c>
@@ -9298,8 +10448,14 @@
       <c r="M191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="1">
+        <v>1</v>
+      </c>
+      <c r="O191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>265</v>
       </c>
@@ -9339,8 +10495,14 @@
       <c r="M192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="1">
+        <v>1</v>
+      </c>
+      <c r="O192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>267</v>
       </c>
@@ -9380,8 +10542,14 @@
       <c r="M193" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="1">
+        <v>1</v>
+      </c>
+      <c r="O193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>269</v>
       </c>
@@ -9421,8 +10589,14 @@
       <c r="M194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" s="1">
+        <v>0</v>
+      </c>
+      <c r="O194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>270</v>
       </c>
@@ -9462,8 +10636,14 @@
       <c r="M195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" s="1">
+        <v>0</v>
+      </c>
+      <c r="O195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>271</v>
       </c>
@@ -9488,14 +10668,14 @@
       <c r="H196" s="1">
         <v>1</v>
       </c>
-      <c r="I196" s="4">
-        <v>0</v>
-      </c>
-      <c r="J196" s="1">
-        <v>1</v>
-      </c>
-      <c r="K196" s="4">
-        <v>0</v>
+      <c r="I196" s="1">
+        <v>1</v>
+      </c>
+      <c r="J196" s="4">
+        <v>0</v>
+      </c>
+      <c r="K196" s="1">
+        <v>1</v>
       </c>
       <c r="L196" s="4">
         <v>0</v>
@@ -9503,8 +10683,14 @@
       <c r="M196" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" s="4">
+        <v>0</v>
+      </c>
+      <c r="O196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>272</v>
       </c>
@@ -9529,23 +10715,29 @@
       <c r="H197" s="1">
         <v>1</v>
       </c>
-      <c r="I197" s="4">
-        <v>0</v>
-      </c>
-      <c r="J197" s="1">
-        <v>1</v>
-      </c>
-      <c r="K197" s="4">
-        <v>0</v>
-      </c>
-      <c r="L197" s="4">
-        <v>0</v>
-      </c>
-      <c r="M197" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I197" s="1">
+        <v>1</v>
+      </c>
+      <c r="J197" s="5">
+        <v>1</v>
+      </c>
+      <c r="K197" s="1">
+        <v>1</v>
+      </c>
+      <c r="L197" s="5">
+        <v>1</v>
+      </c>
+      <c r="M197" s="5">
+        <v>1</v>
+      </c>
+      <c r="N197" s="5">
+        <v>1</v>
+      </c>
+      <c r="O197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>273</v>
       </c>
@@ -9585,8 +10777,14 @@
       <c r="M198" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="1">
+        <v>1</v>
+      </c>
+      <c r="O198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>274</v>
       </c>
@@ -9626,8 +10824,14 @@
       <c r="M199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="1">
+        <v>0</v>
+      </c>
+      <c r="O199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>275</v>
       </c>
@@ -9667,8 +10871,14 @@
       <c r="M200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="1">
+        <v>0</v>
+      </c>
+      <c r="O200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>276</v>
       </c>
@@ -9708,8 +10918,14 @@
       <c r="M201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" s="1">
+        <v>0</v>
+      </c>
+      <c r="O201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>277</v>
       </c>
@@ -9749,8 +10965,14 @@
       <c r="M202" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="1">
+        <v>0</v>
+      </c>
+      <c r="O202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>279</v>
       </c>
@@ -9790,8 +11012,14 @@
       <c r="M203" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203" s="1">
+        <v>1</v>
+      </c>
+      <c r="O203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>280</v>
       </c>
@@ -9831,8 +11059,14 @@
       <c r="M204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="1">
+        <v>1</v>
+      </c>
+      <c r="O204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>282</v>
       </c>
@@ -9872,8 +11106,14 @@
       <c r="M205" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" s="1">
+        <v>0</v>
+      </c>
+      <c r="O205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>283</v>
       </c>
@@ -9913,8 +11153,14 @@
       <c r="M206" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="1">
+        <v>0</v>
+      </c>
+      <c r="O206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>284</v>
       </c>
@@ -9954,8 +11200,14 @@
       <c r="M207" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207" s="1">
+        <v>1</v>
+      </c>
+      <c r="O207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>285</v>
       </c>
@@ -9995,8 +11247,14 @@
       <c r="M208" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" s="1">
+        <v>1</v>
+      </c>
+      <c r="O208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>286</v>
       </c>
@@ -10036,8 +11294,14 @@
       <c r="M209" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" s="1">
+        <v>1</v>
+      </c>
+      <c r="O209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>287</v>
       </c>
@@ -10077,8 +11341,14 @@
       <c r="M210" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" s="1">
+        <v>1</v>
+      </c>
+      <c r="O210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>289</v>
       </c>
@@ -10118,8 +11388,14 @@
       <c r="M211" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="1">
+        <v>1</v>
+      </c>
+      <c r="O211" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>291</v>
       </c>
@@ -10159,8 +11435,14 @@
       <c r="M212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" s="1">
+        <v>0</v>
+      </c>
+      <c r="O212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>292</v>
       </c>
@@ -10200,8 +11482,14 @@
       <c r="M213" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="1">
+        <v>1</v>
+      </c>
+      <c r="O213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>293</v>
       </c>
@@ -10241,8 +11529,14 @@
       <c r="M214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="1">
+        <v>1</v>
+      </c>
+      <c r="O214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>294</v>
       </c>
@@ -10282,8 +11576,14 @@
       <c r="M215" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="1">
+        <v>1</v>
+      </c>
+      <c r="O215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>298</v>
       </c>
@@ -10323,8 +11623,14 @@
       <c r="M216" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" s="1">
+        <v>190</v>
+      </c>
+      <c r="O216" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>309</v>
       </c>
@@ -10364,8 +11670,14 @@
       <c r="M217" s="1">
         <v>64000</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" s="1">
+        <v>64000</v>
+      </c>
+      <c r="O217" s="1">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>310</v>
       </c>
@@ -10405,8 +11717,14 @@
       <c r="M218" s="1">
         <v>17000</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="1">
+        <v>17000</v>
+      </c>
+      <c r="O218" s="1">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>311</v>
       </c>
@@ -10446,8 +11764,14 @@
       <c r="M219" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" s="1">
+        <v>1500</v>
+      </c>
+      <c r="O219" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>312</v>
       </c>
@@ -10487,8 +11811,14 @@
       <c r="M220" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220" s="1">
+        <v>350</v>
+      </c>
+      <c r="O220" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>313</v>
       </c>
@@ -10516,8 +11846,8 @@
       <c r="I221" s="1">
         <v>1</v>
       </c>
-      <c r="J221" s="4">
-        <v>0</v>
+      <c r="J221" s="1">
+        <v>1</v>
       </c>
       <c r="K221" s="4">
         <v>0</v>
@@ -10528,8 +11858,14 @@
       <c r="M221" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" s="4">
+        <v>0</v>
+      </c>
+      <c r="O221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>314</v>
       </c>
@@ -10569,8 +11905,14 @@
       <c r="M222" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" s="1">
+        <v>1</v>
+      </c>
+      <c r="O222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>316</v>
       </c>
@@ -10610,8 +11952,14 @@
       <c r="M223" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" s="1">
+        <v>0</v>
+      </c>
+      <c r="O223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>317</v>
       </c>
@@ -10651,8 +11999,14 @@
       <c r="M224" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224" s="1">
+        <v>0</v>
+      </c>
+      <c r="O224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>318</v>
       </c>
@@ -10692,8 +12046,14 @@
       <c r="M225" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" s="1">
+        <v>0</v>
+      </c>
+      <c r="O225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>319</v>
       </c>
@@ -10733,8 +12093,14 @@
       <c r="M226" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226" s="1">
+        <v>0</v>
+      </c>
+      <c r="O226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>320</v>
       </c>
@@ -10774,8 +12140,14 @@
       <c r="M227" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" s="1">
+        <v>0</v>
+      </c>
+      <c r="O227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>321</v>
       </c>
@@ -10815,8 +12187,14 @@
       <c r="M228" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228" s="1">
+        <v>0</v>
+      </c>
+      <c r="O228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>322</v>
       </c>
@@ -10844,8 +12222,8 @@
       <c r="I229" s="1">
         <v>1</v>
       </c>
-      <c r="J229" s="4">
-        <v>0</v>
+      <c r="J229" s="1">
+        <v>1</v>
       </c>
       <c r="K229" s="4">
         <v>0</v>
@@ -10856,8 +12234,14 @@
       <c r="M229" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229" s="4">
+        <v>0</v>
+      </c>
+      <c r="O229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>324</v>
       </c>
@@ -10897,8 +12281,14 @@
       <c r="M230" s="1">
         <v>103000</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230" s="1">
+        <v>103000</v>
+      </c>
+      <c r="O230" s="1">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>325</v>
       </c>
@@ -10938,8 +12328,14 @@
       <c r="M231" s="1">
         <v>770</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" s="1">
+        <v>770</v>
+      </c>
+      <c r="O231" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>326</v>
       </c>
@@ -10979,8 +12375,14 @@
       <c r="M232" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232" s="1">
+        <v>250</v>
+      </c>
+      <c r="O232" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>327</v>
       </c>
@@ -11020,8 +12422,14 @@
       <c r="M233" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233" s="1">
+        <v>40</v>
+      </c>
+      <c r="O233" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>329</v>
       </c>
@@ -11061,8 +12469,14 @@
       <c r="M234" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" s="1">
+        <v>0</v>
+      </c>
+      <c r="O234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>330</v>
       </c>
@@ -11102,8 +12516,14 @@
       <c r="M235" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" s="1">
+        <v>0</v>
+      </c>
+      <c r="O235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>331</v>
       </c>
@@ -11143,8 +12563,14 @@
       <c r="M236" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236" s="1">
+        <v>0</v>
+      </c>
+      <c r="O236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>332</v>
       </c>
@@ -11184,8 +12610,14 @@
       <c r="M237" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" s="1">
+        <v>0</v>
+      </c>
+      <c r="O237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>333</v>
       </c>
@@ -11225,8 +12657,14 @@
       <c r="M238" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238" s="1">
+        <v>0</v>
+      </c>
+      <c r="O238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>334</v>
       </c>
@@ -11266,8 +12704,14 @@
       <c r="M239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" s="1">
+        <v>0</v>
+      </c>
+      <c r="O239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>340</v>
       </c>
@@ -11307,8 +12751,14 @@
       <c r="M240" s="1">
         <v>8400</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240" s="1">
+        <v>8400</v>
+      </c>
+      <c r="O240" s="1">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>341</v>
       </c>
@@ -11348,8 +12798,14 @@
       <c r="M241" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241" s="1">
+        <v>170</v>
+      </c>
+      <c r="O241" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>342</v>
       </c>
@@ -11389,8 +12845,14 @@
       <c r="M242" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242" s="1">
+        <v>70</v>
+      </c>
+      <c r="O242" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>343</v>
       </c>
@@ -11418,8 +12880,8 @@
       <c r="I243" s="1">
         <v>1</v>
       </c>
-      <c r="J243" s="4">
-        <v>0</v>
+      <c r="J243" s="1">
+        <v>1</v>
       </c>
       <c r="K243" s="4">
         <v>0</v>
@@ -11430,8 +12892,14 @@
       <c r="M243" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243" s="4">
+        <v>0</v>
+      </c>
+      <c r="O243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>345</v>
       </c>
@@ -11471,8 +12939,14 @@
       <c r="M244" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244" s="1">
+        <v>0</v>
+      </c>
+      <c r="O244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>346</v>
       </c>
@@ -11512,8 +12986,14 @@
       <c r="M245" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245" s="1">
+        <v>1</v>
+      </c>
+      <c r="O245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>348</v>
       </c>
@@ -11553,8 +13033,14 @@
       <c r="M246" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246" s="1">
+        <v>0</v>
+      </c>
+      <c r="O246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>349</v>
       </c>
@@ -11594,8 +13080,14 @@
       <c r="M247" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247" s="1">
+        <v>0</v>
+      </c>
+      <c r="O247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>350</v>
       </c>
@@ -11635,8 +13127,14 @@
       <c r="M248" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248" s="1">
+        <v>0</v>
+      </c>
+      <c r="O248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>351</v>
       </c>
@@ -11664,8 +13162,8 @@
       <c r="I249" s="1">
         <v>1</v>
       </c>
-      <c r="J249" s="4">
-        <v>0</v>
+      <c r="J249" s="1">
+        <v>1</v>
       </c>
       <c r="K249" s="4">
         <v>0</v>
@@ -11676,8 +13174,14 @@
       <c r="M249" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249" s="4">
+        <v>0</v>
+      </c>
+      <c r="O249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>352</v>
       </c>
@@ -11717,8 +13221,14 @@
       <c r="M250" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250" s="1">
+        <v>1</v>
+      </c>
+      <c r="O250" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>353</v>
       </c>
@@ -11758,8 +13268,14 @@
       <c r="M251" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251" s="1">
+        <v>1</v>
+      </c>
+      <c r="O251" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>355</v>
       </c>
@@ -11799,8 +13315,14 @@
       <c r="M252" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252" s="1">
+        <v>0</v>
+      </c>
+      <c r="O252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>356</v>
       </c>
@@ -11840,8 +13362,14 @@
       <c r="M253" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253" s="1">
+        <v>0</v>
+      </c>
+      <c r="O253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>357</v>
       </c>
@@ -11869,8 +13397,8 @@
       <c r="I254" s="1">
         <v>1</v>
       </c>
-      <c r="J254" s="4">
-        <v>0</v>
+      <c r="J254" s="1">
+        <v>1</v>
       </c>
       <c r="K254" s="4">
         <v>0</v>
@@ -11881,8 +13409,14 @@
       <c r="M254" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254" s="4">
+        <v>0</v>
+      </c>
+      <c r="O254" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>358</v>
       </c>
@@ -11922,8 +13456,14 @@
       <c r="M255" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255" s="1">
+        <v>1</v>
+      </c>
+      <c r="O255" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>359</v>
       </c>
@@ -11963,8 +13503,14 @@
       <c r="M256" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256" s="1">
+        <v>1</v>
+      </c>
+      <c r="O256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>360</v>
       </c>
@@ -12004,8 +13550,14 @@
       <c r="M257" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257" s="1">
+        <v>1</v>
+      </c>
+      <c r="O257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>361</v>
       </c>
@@ -12045,8 +13597,14 @@
       <c r="M258" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258" s="1">
+        <v>1</v>
+      </c>
+      <c r="O258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>363</v>
       </c>
@@ -12086,8 +13644,14 @@
       <c r="M259" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259" s="1">
+        <v>0</v>
+      </c>
+      <c r="O259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>364</v>
       </c>
@@ -12127,8 +13691,14 @@
       <c r="M260" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260" s="1">
+        <v>0</v>
+      </c>
+      <c r="O260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>365</v>
       </c>
@@ -12168,8 +13738,14 @@
       <c r="M261" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261" s="1">
+        <v>0</v>
+      </c>
+      <c r="O261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>366</v>
       </c>
@@ -12209,8 +13785,14 @@
       <c r="M262" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262" s="1">
+        <v>0</v>
+      </c>
+      <c r="O262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>372</v>
       </c>
@@ -12238,8 +13820,8 @@
       <c r="I263" s="1">
         <v>1</v>
       </c>
-      <c r="J263" s="4">
-        <v>0</v>
+      <c r="J263" s="1">
+        <v>1</v>
       </c>
       <c r="K263" s="4">
         <v>0</v>
@@ -12250,8 +13832,14 @@
       <c r="M263" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263" s="4">
+        <v>0</v>
+      </c>
+      <c r="O263" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>373</v>
       </c>
@@ -12291,8 +13879,14 @@
       <c r="M264" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264" s="1">
+        <v>1</v>
+      </c>
+      <c r="O264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>374</v>
       </c>
@@ -12332,8 +13926,14 @@
       <c r="M265" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265" s="1">
+        <v>1</v>
+      </c>
+      <c r="O265" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>376</v>
       </c>
@@ -12373,8 +13973,14 @@
       <c r="M266" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266" s="1">
+        <v>1</v>
+      </c>
+      <c r="O266" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>382</v>
       </c>
@@ -12414,8 +14020,14 @@
       <c r="M267" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267" s="1">
+        <v>0</v>
+      </c>
+      <c r="O267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>384</v>
       </c>
@@ -12455,8 +14067,14 @@
       <c r="M268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268" s="1">
+        <v>0</v>
+      </c>
+      <c r="O268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>385</v>
       </c>
@@ -12484,8 +14102,8 @@
       <c r="I269" s="1">
         <v>1</v>
       </c>
-      <c r="J269" s="4">
-        <v>0</v>
+      <c r="J269" s="1">
+        <v>1</v>
       </c>
       <c r="K269" s="4">
         <v>0</v>
@@ -12496,8 +14114,14 @@
       <c r="M269" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269" s="4">
+        <v>0</v>
+      </c>
+      <c r="O269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>386</v>
       </c>
@@ -12537,8 +14161,14 @@
       <c r="M270" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270" s="1">
+        <v>1</v>
+      </c>
+      <c r="O270" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>387</v>
       </c>
@@ -12578,8 +14208,14 @@
       <c r="M271" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271" s="1">
+        <v>1</v>
+      </c>
+      <c r="O271" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>398</v>
       </c>
@@ -12619,8 +14255,14 @@
       <c r="M272" s="1">
         <v>11400</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272" s="1">
+        <v>11400</v>
+      </c>
+      <c r="O272" s="1">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>399</v>
       </c>
@@ -12660,8 +14302,14 @@
       <c r="M273" s="1">
         <v>4100</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273" s="1">
+        <v>4100</v>
+      </c>
+      <c r="O273" s="1">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>400</v>
       </c>
@@ -12701,8 +14349,14 @@
       <c r="M274" s="1">
         <v>1600</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274" s="1">
+        <v>1600</v>
+      </c>
+      <c r="O274" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>401</v>
       </c>
@@ -12742,8 +14396,14 @@
       <c r="M275" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275" s="1">
+        <v>500</v>
+      </c>
+      <c r="O275" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>402</v>
       </c>
@@ -12783,8 +14443,14 @@
       <c r="M276" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276" s="1">
+        <v>0</v>
+      </c>
+      <c r="O276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>403</v>
       </c>
@@ -12824,8 +14490,14 @@
       <c r="M277" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277" s="1">
+        <v>0</v>
+      </c>
+      <c r="O277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>404</v>
       </c>
@@ -12853,8 +14525,8 @@
       <c r="I278" s="1">
         <v>1</v>
       </c>
-      <c r="J278" s="4">
-        <v>0</v>
+      <c r="J278" s="1">
+        <v>1</v>
       </c>
       <c r="K278" s="4">
         <v>0</v>
@@ -12865,8 +14537,14 @@
       <c r="M278" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278" s="4">
+        <v>0</v>
+      </c>
+      <c r="O278" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>405</v>
       </c>
@@ -12906,8 +14584,14 @@
       <c r="M279" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279" s="1">
+        <v>1</v>
+      </c>
+      <c r="O279" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>406</v>
       </c>
@@ -12947,8 +14631,14 @@
       <c r="M280" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280" s="1">
+        <v>1</v>
+      </c>
+      <c r="O280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>410</v>
       </c>
@@ -12988,8 +14678,14 @@
       <c r="M281" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281" s="1">
+        <v>0</v>
+      </c>
+      <c r="O281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>411</v>
       </c>
@@ -13029,8 +14725,14 @@
       <c r="M282" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282" s="1">
+        <v>0</v>
+      </c>
+      <c r="O282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>412</v>
       </c>
@@ -13070,8 +14772,14 @@
       <c r="M283" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283" s="1">
+        <v>1</v>
+      </c>
+      <c r="O283" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>416</v>
       </c>
@@ -13111,8 +14819,14 @@
       <c r="M284" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284" s="1">
+        <v>0</v>
+      </c>
+      <c r="O284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>417</v>
       </c>
@@ -13152,8 +14866,14 @@
       <c r="M285" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" s="1">
+        <v>1</v>
+      </c>
+      <c r="O285" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>421</v>
       </c>
@@ -13193,8 +14913,14 @@
       <c r="M286" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286" s="1">
+        <v>1</v>
+      </c>
+      <c r="O286" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>422</v>
       </c>
@@ -13234,8 +14960,14 @@
       <c r="M287" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" s="1">
+        <v>1</v>
+      </c>
+      <c r="O287" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>423</v>
       </c>
@@ -13275,8 +15007,14 @@
       <c r="M288" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288" s="1">
+        <v>1</v>
+      </c>
+      <c r="O288" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>424</v>
       </c>
@@ -13316,8 +15054,14 @@
       <c r="M289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289" s="1">
+        <v>1</v>
+      </c>
+      <c r="O289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>425</v>
       </c>
@@ -13357,8 +15101,14 @@
       <c r="M290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290" s="1">
+        <v>1</v>
+      </c>
+      <c r="O290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>426</v>
       </c>
@@ -13398,8 +15148,14 @@
       <c r="M291" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291" s="1">
+        <v>1</v>
+      </c>
+      <c r="O291" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>428</v>
       </c>
@@ -13439,8 +15195,14 @@
       <c r="M292" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292" s="1">
+        <v>0</v>
+      </c>
+      <c r="O292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>429</v>
       </c>
@@ -13480,8 +15242,14 @@
       <c r="M293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293" s="1">
+        <v>1</v>
+      </c>
+      <c r="O293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>430</v>
       </c>
@@ -13521,8 +15289,14 @@
       <c r="M294" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294" s="1">
+        <v>1</v>
+      </c>
+      <c r="O294" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>431</v>
       </c>
@@ -13562,8 +15336,14 @@
       <c r="M295" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295" s="1">
+        <v>1</v>
+      </c>
+      <c r="O295" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>432</v>
       </c>
@@ -13603,8 +15383,14 @@
       <c r="M296" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296" s="1">
+        <v>1</v>
+      </c>
+      <c r="O296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>443</v>
       </c>
@@ -13644,8 +15430,14 @@
       <c r="M297" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297" s="1">
+        <v>0</v>
+      </c>
+      <c r="O297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>444</v>
       </c>
@@ -13685,8 +15477,14 @@
       <c r="M298" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298" s="1">
+        <v>0</v>
+      </c>
+      <c r="O298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>446</v>
       </c>
@@ -13726,8 +15524,14 @@
       <c r="M299" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299" s="1">
+        <v>0</v>
+      </c>
+      <c r="O299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>447</v>
       </c>
@@ -13767,8 +15571,14 @@
       <c r="M300" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300" s="1">
+        <v>0</v>
+      </c>
+      <c r="O300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>448</v>
       </c>
@@ -13808,8 +15618,14 @@
       <c r="M301" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301" s="1">
+        <v>0</v>
+      </c>
+      <c r="O301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>450</v>
       </c>
@@ -13849,8 +15665,14 @@
       <c r="M302" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302" s="1">
+        <v>0</v>
+      </c>
+      <c r="O302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>451</v>
       </c>
@@ -13890,8 +15712,14 @@
       <c r="M303" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303" s="1">
+        <v>0</v>
+      </c>
+      <c r="O303" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>452</v>
       </c>
@@ -13931,8 +15759,14 @@
       <c r="M304" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304" s="1">
+        <v>0</v>
+      </c>
+      <c r="O304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>453</v>
       </c>
@@ -13972,8 +15806,14 @@
       <c r="M305" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305" s="1">
+        <v>0</v>
+      </c>
+      <c r="O305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>458</v>
       </c>
@@ -14013,8 +15853,14 @@
       <c r="M306" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306" s="1">
+        <v>0</v>
+      </c>
+      <c r="O306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>459</v>
       </c>
@@ -14054,8 +15900,14 @@
       <c r="M307" s="1">
         <v>17881</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307" s="1">
+        <v>17881</v>
+      </c>
+      <c r="O307" s="1">
+        <v>17881</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>460</v>
       </c>
@@ -14095,8 +15947,14 @@
       <c r="M308" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308" s="1">
+        <v>0</v>
+      </c>
+      <c r="O308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>461</v>
       </c>
@@ -14136,8 +15994,14 @@
       <c r="M309" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309" s="1">
+        <v>0</v>
+      </c>
+      <c r="O309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>463</v>
       </c>
@@ -14177,8 +16041,14 @@
       <c r="M310" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310" s="1">
+        <v>0</v>
+      </c>
+      <c r="O310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>464</v>
       </c>
@@ -14218,8 +16088,14 @@
       <c r="M311" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311" s="1">
+        <v>0</v>
+      </c>
+      <c r="O311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>465</v>
       </c>
@@ -14259,8 +16135,14 @@
       <c r="M312" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312" s="1">
+        <v>0</v>
+      </c>
+      <c r="O312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>466</v>
       </c>
@@ -14300,8 +16182,14 @@
       <c r="M313" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313" s="1">
+        <v>0</v>
+      </c>
+      <c r="O313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>467</v>
       </c>
@@ -14341,8 +16229,14 @@
       <c r="M314" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314" s="1">
+        <v>0</v>
+      </c>
+      <c r="O314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>468</v>
       </c>
@@ -14382,8 +16276,14 @@
       <c r="M315" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315" s="1">
+        <v>0</v>
+      </c>
+      <c r="O315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>469</v>
       </c>
@@ -14423,8 +16323,14 @@
       <c r="M316" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316" s="1">
+        <v>0</v>
+      </c>
+      <c r="O316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>471</v>
       </c>
@@ -14464,8 +16370,14 @@
       <c r="M317" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317" s="1">
+        <v>110</v>
+      </c>
+      <c r="O317" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>472</v>
       </c>
@@ -14505,8 +16417,14 @@
       <c r="M318" s="1">
         <v>269167</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318" s="1">
+        <v>269167</v>
+      </c>
+      <c r="O318" s="1">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>473</v>
       </c>
@@ -14546,8 +16464,14 @@
       <c r="M319" s="1">
         <v>269167</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319" s="1">
+        <v>269167</v>
+      </c>
+      <c r="O319" s="1">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>474</v>
       </c>
@@ -14587,8 +16511,14 @@
       <c r="M320" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320" s="1">
+        <v>0</v>
+      </c>
+      <c r="O320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>475</v>
       </c>
@@ -14628,8 +16558,14 @@
       <c r="M321" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321" s="1">
+        <v>0</v>
+      </c>
+      <c r="O321" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>476</v>
       </c>
@@ -14669,8 +16605,14 @@
       <c r="M322" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322" s="1">
+        <v>0</v>
+      </c>
+      <c r="O322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>477</v>
       </c>
@@ -14710,8 +16652,14 @@
       <c r="M323" s="1">
         <v>269167</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323" s="1">
+        <v>269167</v>
+      </c>
+      <c r="O323" s="1">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>478</v>
       </c>
@@ -14751,8 +16699,14 @@
       <c r="M324" s="1">
         <v>269167</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324" s="1">
+        <v>269167</v>
+      </c>
+      <c r="O324" s="1">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>479</v>
       </c>
@@ -14792,8 +16746,14 @@
       <c r="M325" s="1">
         <v>269167</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325" s="1">
+        <v>269167</v>
+      </c>
+      <c r="O325" s="1">
+        <v>269167</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>480</v>
       </c>
@@ -14833,8 +16793,14 @@
       <c r="M326" s="1">
         <v>1103</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326" s="1">
+        <v>1103</v>
+      </c>
+      <c r="O326" s="1">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>482</v>
       </c>
@@ -14874,8 +16840,14 @@
       <c r="M327" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327" s="1">
+        <v>0</v>
+      </c>
+      <c r="O327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>483</v>
       </c>
@@ -14915,8 +16887,14 @@
       <c r="M328" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328" s="1">
+        <v>0</v>
+      </c>
+      <c r="O328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>484</v>
       </c>
@@ -14956,8 +16934,14 @@
       <c r="M329" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329" s="1">
+        <v>0</v>
+      </c>
+      <c r="O329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>485</v>
       </c>
@@ -14997,8 +16981,14 @@
       <c r="M330" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330" s="1">
+        <v>0</v>
+      </c>
+      <c r="O330" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>486</v>
       </c>
@@ -15038,8 +17028,14 @@
       <c r="M331" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331" s="1">
+        <v>0</v>
+      </c>
+      <c r="O331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>487</v>
       </c>
@@ -15079,8 +17075,14 @@
       <c r="M332" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332" s="1">
+        <v>0</v>
+      </c>
+      <c r="O332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>488</v>
       </c>
@@ -15120,8 +17122,14 @@
       <c r="M333" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333" s="1">
+        <v>0</v>
+      </c>
+      <c r="O333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>489</v>
       </c>
@@ -15161,8 +17169,14 @@
       <c r="M334" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334" s="1">
+        <v>0</v>
+      </c>
+      <c r="O334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>490</v>
       </c>
@@ -15202,8 +17216,14 @@
       <c r="M335" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335" s="1">
+        <v>0</v>
+      </c>
+      <c r="O335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>491</v>
       </c>
@@ -15243,8 +17263,14 @@
       <c r="M336" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336" s="1">
+        <v>0</v>
+      </c>
+      <c r="O336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>492</v>
       </c>
@@ -15284,8 +17310,14 @@
       <c r="M337" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337" s="1">
+        <v>0</v>
+      </c>
+      <c r="O337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>494</v>
       </c>
@@ -15325,8 +17357,14 @@
       <c r="M338" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" s="1">
+        <v>6</v>
+      </c>
+      <c r="O338" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>500</v>
       </c>
@@ -15366,8 +17404,14 @@
       <c r="M339" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339" s="1">
+        <v>0</v>
+      </c>
+      <c r="O339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>501</v>
       </c>
@@ -15407,8 +17451,14 @@
       <c r="M340" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340" s="1">
+        <v>0</v>
+      </c>
+      <c r="O340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>503</v>
       </c>
@@ -15448,8 +17498,14 @@
       <c r="M341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341" s="1">
+        <v>0</v>
+      </c>
+      <c r="O341" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>504</v>
       </c>
@@ -15489,8 +17545,14 @@
       <c r="M342" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342" s="1">
+        <v>0</v>
+      </c>
+      <c r="O342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>505</v>
       </c>
@@ -15530,8 +17592,14 @@
       <c r="M343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343" s="1">
+        <v>0</v>
+      </c>
+      <c r="O343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>506</v>
       </c>
@@ -15569,6 +17637,12 @@
         <v>0</v>
       </c>
       <c r="M344" s="1">
+        <v>0</v>
+      </c>
+      <c r="N344" s="1">
+        <v>0</v>
+      </c>
+      <c r="O344" s="1">
         <v>0</v>
       </c>
     </row>

--- a/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/PrescaleTable-L1Menu_Collisions2018_v2_1_0-DedicatedRateStudy.xlsx
+++ b/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/PrescaleTable-L1Menu_Collisions2018_v2_1_0-DedicatedRateStudy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinaaruta/Desktop/L1Menus/L1Menu2018-v2_1_0-DedicatedRateStudy/PrescaleTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709743F5-1DF5-E24E-BCD6-EB929B2055D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A85C6-F3F1-354D-8495-65580BE656B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28620" windowHeight="16600" xr2:uid="{D43503D0-D942-054C-A252-8EF60B2ECDE6}"/>
+    <workbookView xWindow="-40" yWindow="-20380" windowWidth="30580" windowHeight="17280" xr2:uid="{D43503D0-D942-054C-A252-8EF60B2ECDE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1091,6 +1091,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1143,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1152,6 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1468,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46014C27-F11A-2A41-BE5F-BBB4784EB01D}">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="H348" sqref="H348"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,7 +1496,7 @@
       <c r="C1" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>1.9999999999999999E+34</v>
       </c>
       <c r="E1" s="3">
@@ -2431,11 +2439,11 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2452,8 +2460,8 @@
       <c r="K21" s="1">
         <v>1</v>
       </c>
-      <c r="L21" s="4">
-        <v>0</v>
+      <c r="L21" s="1">
+        <v>1</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -3888,8 +3896,8 @@
       <c r="D52" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="1">
-        <v>2</v>
+      <c r="E52" s="8">
+        <v>50</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
@@ -3912,14 +3920,14 @@
       <c r="L52" s="1">
         <v>2</v>
       </c>
-      <c r="M52" s="1">
-        <v>2</v>
-      </c>
-      <c r="N52" s="1">
-        <v>2</v>
-      </c>
-      <c r="O52" s="1">
-        <v>2</v>
+      <c r="M52" s="8">
+        <v>50</v>
+      </c>
+      <c r="N52" s="8">
+        <v>50</v>
+      </c>
+      <c r="O52" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -7416,8 +7424,8 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-      <c r="F127" s="4">
-        <v>0</v>
+      <c r="F127" s="1">
+        <v>1</v>
       </c>
       <c r="G127" s="4">
         <v>0</v>
@@ -7434,8 +7442,8 @@
       <c r="K127" s="1">
         <v>1</v>
       </c>
-      <c r="L127" s="4">
-        <v>0</v>
+      <c r="L127" s="1">
+        <v>1</v>
       </c>
       <c r="M127" s="4">
         <v>0</v>
@@ -7466,8 +7474,8 @@
       <c r="F128" s="1">
         <v>1</v>
       </c>
-      <c r="G128" s="4">
-        <v>0</v>
+      <c r="G128" s="1">
+        <v>1</v>
       </c>
       <c r="H128" s="1">
         <v>1</v>
@@ -7484,8 +7492,8 @@
       <c r="L128" s="1">
         <v>1</v>
       </c>
-      <c r="M128" s="4">
-        <v>0</v>
+      <c r="M128" s="1">
+        <v>1</v>
       </c>
       <c r="N128" s="1">
         <v>1</v>
@@ -7787,39 +7795,39 @@
         <v>0</v>
       </c>
       <c r="D135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" s="1">
-        <v>0</v>
-      </c>
-      <c r="G135" s="1">
-        <v>0</v>
-      </c>
-      <c r="H135" s="1">
-        <v>0</v>
-      </c>
-      <c r="I135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+      <c r="I135" s="4">
         <v>0</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="1">
-        <v>0</v>
-      </c>
-      <c r="M135" s="1">
-        <v>0</v>
-      </c>
-      <c r="N135" s="1">
-        <v>0</v>
-      </c>
-      <c r="O135" s="1">
+        <v>1</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="4">
+        <v>0</v>
+      </c>
+      <c r="O135" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7886,8 +7894,8 @@
       <c r="E137" s="1">
         <v>1</v>
       </c>
-      <c r="F137" s="4">
-        <v>0</v>
+      <c r="F137" s="1">
+        <v>1</v>
       </c>
       <c r="G137" s="4">
         <v>0</v>
@@ -7904,8 +7912,8 @@
       <c r="K137" s="1">
         <v>1</v>
       </c>
-      <c r="L137" s="4">
-        <v>0</v>
+      <c r="L137" s="1">
+        <v>1</v>
       </c>
       <c r="M137" s="4">
         <v>0</v>
@@ -7933,8 +7941,8 @@
       <c r="E138" s="1">
         <v>1</v>
       </c>
-      <c r="F138" s="4">
-        <v>0</v>
+      <c r="F138" s="1">
+        <v>1</v>
       </c>
       <c r="G138" s="4">
         <v>0</v>
@@ -7951,8 +7959,8 @@
       <c r="K138" s="1">
         <v>1</v>
       </c>
-      <c r="L138" s="4">
-        <v>0</v>
+      <c r="L138" s="1">
+        <v>1</v>
       </c>
       <c r="M138" s="4">
         <v>0</v>
@@ -8403,8 +8411,8 @@
       <c r="E148" s="1">
         <v>1</v>
       </c>
-      <c r="F148" s="4">
-        <v>0</v>
+      <c r="F148" s="1">
+        <v>1</v>
       </c>
       <c r="G148" s="4">
         <v>0</v>
@@ -8421,8 +8429,8 @@
       <c r="K148" s="1">
         <v>1</v>
       </c>
-      <c r="L148" s="4">
-        <v>0</v>
+      <c r="L148" s="1">
+        <v>1</v>
       </c>
       <c r="M148" s="4">
         <v>0</v>
@@ -8450,8 +8458,8 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-      <c r="F149" s="4">
-        <v>0</v>
+      <c r="F149" s="1">
+        <v>1</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
@@ -8468,8 +8476,8 @@
       <c r="K149" s="1">
         <v>1</v>
       </c>
-      <c r="L149" s="4">
-        <v>0</v>
+      <c r="L149" s="1">
+        <v>1</v>
       </c>
       <c r="M149" s="4">
         <v>0</v>
@@ -8497,8 +8505,8 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-      <c r="F150" s="4">
-        <v>0</v>
+      <c r="F150" s="1">
+        <v>1</v>
       </c>
       <c r="G150" s="4">
         <v>0</v>
@@ -8515,8 +8523,8 @@
       <c r="K150" s="1">
         <v>1</v>
       </c>
-      <c r="L150" s="4">
-        <v>0</v>
+      <c r="L150" s="1">
+        <v>1</v>
       </c>
       <c r="M150" s="4">
         <v>0</v>
@@ -8547,8 +8555,8 @@
       <c r="F151" s="1">
         <v>1</v>
       </c>
-      <c r="G151" s="4">
-        <v>0</v>
+      <c r="G151" s="1">
+        <v>1</v>
       </c>
       <c r="H151" s="1">
         <v>1</v>
@@ -8565,8 +8573,8 @@
       <c r="L151" s="1">
         <v>1</v>
       </c>
-      <c r="M151" s="4">
-        <v>0</v>
+      <c r="M151" s="1">
+        <v>1</v>
       </c>
       <c r="N151" s="1">
         <v>1</v>
@@ -8594,8 +8602,8 @@
       <c r="F152" s="1">
         <v>1</v>
       </c>
-      <c r="G152" s="4">
-        <v>0</v>
+      <c r="G152" s="1">
+        <v>1</v>
       </c>
       <c r="H152" s="1">
         <v>1</v>
@@ -8612,8 +8620,8 @@
       <c r="L152" s="1">
         <v>1</v>
       </c>
-      <c r="M152" s="4">
-        <v>0</v>
+      <c r="M152" s="1">
+        <v>1</v>
       </c>
       <c r="N152" s="1">
         <v>1</v>
@@ -9766,8 +9774,8 @@
       <c r="E177" s="1">
         <v>1</v>
       </c>
-      <c r="F177" s="4">
-        <v>0</v>
+      <c r="F177" s="1">
+        <v>1</v>
       </c>
       <c r="G177" s="4">
         <v>0</v>
@@ -9784,8 +9792,8 @@
       <c r="K177" s="1">
         <v>1</v>
       </c>
-      <c r="L177" s="4">
-        <v>0</v>
+      <c r="L177" s="1">
+        <v>1</v>
       </c>
       <c r="M177" s="4">
         <v>0</v>
@@ -9907,8 +9915,8 @@
       <c r="E180" s="1">
         <v>1</v>
       </c>
-      <c r="F180" s="4">
-        <v>0</v>
+      <c r="F180" s="1">
+        <v>1</v>
       </c>
       <c r="G180" s="4">
         <v>0</v>
@@ -9925,8 +9933,8 @@
       <c r="K180" s="1">
         <v>1</v>
       </c>
-      <c r="L180" s="4">
-        <v>0</v>
+      <c r="L180" s="1">
+        <v>1</v>
       </c>
       <c r="M180" s="4">
         <v>0</v>
@@ -9957,8 +9965,8 @@
       <c r="F181" s="1">
         <v>1</v>
       </c>
-      <c r="G181" s="4">
-        <v>0</v>
+      <c r="G181" s="1">
+        <v>1</v>
       </c>
       <c r="H181" s="4">
         <v>0</v>
@@ -9975,8 +9983,8 @@
       <c r="L181" s="1">
         <v>1</v>
       </c>
-      <c r="M181" s="4">
-        <v>0</v>
+      <c r="M181" s="1">
+        <v>1</v>
       </c>
       <c r="N181" s="4">
         <v>0</v>
@@ -10283,8 +10291,8 @@
       <c r="E188" s="1">
         <v>1</v>
       </c>
-      <c r="F188" s="4">
-        <v>0</v>
+      <c r="F188" s="1">
+        <v>1</v>
       </c>
       <c r="G188" s="4">
         <v>0</v>
@@ -10301,8 +10309,8 @@
       <c r="K188" s="1">
         <v>1</v>
       </c>
-      <c r="L188" s="4">
-        <v>0</v>
+      <c r="L188" s="1">
+        <v>1</v>
       </c>
       <c r="M188" s="4">
         <v>0</v>
@@ -10677,8 +10685,8 @@
       <c r="K196" s="1">
         <v>1</v>
       </c>
-      <c r="L196" s="4">
-        <v>0</v>
+      <c r="L196" s="1">
+        <v>1</v>
       </c>
       <c r="M196" s="4">
         <v>0</v>
@@ -10724,7 +10732,7 @@
       <c r="K197" s="1">
         <v>1</v>
       </c>
-      <c r="L197" s="5">
+      <c r="L197" s="1">
         <v>1</v>
       </c>
       <c r="M197" s="5">
@@ -11852,8 +11860,8 @@
       <c r="K221" s="4">
         <v>0</v>
       </c>
-      <c r="L221" s="4">
-        <v>0</v>
+      <c r="L221" s="1">
+        <v>1</v>
       </c>
       <c r="M221" s="4">
         <v>0</v>
@@ -12228,8 +12236,8 @@
       <c r="K229" s="4">
         <v>0</v>
       </c>
-      <c r="L229" s="4">
-        <v>0</v>
+      <c r="L229" s="1">
+        <v>1</v>
       </c>
       <c r="M229" s="4">
         <v>0</v>
@@ -12886,8 +12894,8 @@
       <c r="K243" s="4">
         <v>0</v>
       </c>
-      <c r="L243" s="4">
-        <v>0</v>
+      <c r="L243" s="1">
+        <v>1</v>
       </c>
       <c r="M243" s="4">
         <v>0</v>
@@ -13168,8 +13176,8 @@
       <c r="K249" s="4">
         <v>0</v>
       </c>
-      <c r="L249" s="4">
-        <v>0</v>
+      <c r="L249" s="1">
+        <v>1</v>
       </c>
       <c r="M249" s="4">
         <v>0</v>
@@ -13450,8 +13458,8 @@
       <c r="K255" s="1">
         <v>1</v>
       </c>
-      <c r="L255" s="1">
-        <v>1</v>
+      <c r="L255" s="4">
+        <v>0</v>
       </c>
       <c r="M255" s="1">
         <v>1</v>
@@ -13497,8 +13505,8 @@
       <c r="K256" s="1">
         <v>1</v>
       </c>
-      <c r="L256" s="1">
-        <v>1</v>
+      <c r="L256" s="4">
+        <v>0</v>
       </c>
       <c r="M256" s="1">
         <v>1</v>
@@ -13826,8 +13834,8 @@
       <c r="K263" s="4">
         <v>0</v>
       </c>
-      <c r="L263" s="4">
-        <v>0</v>
+      <c r="L263" s="1">
+        <v>1</v>
       </c>
       <c r="M263" s="4">
         <v>0</v>
@@ -14108,8 +14116,8 @@
       <c r="K269" s="4">
         <v>0</v>
       </c>
-      <c r="L269" s="4">
-        <v>0</v>
+      <c r="L269" s="1">
+        <v>1</v>
       </c>
       <c r="M269" s="4">
         <v>0</v>
@@ -14531,8 +14539,8 @@
       <c r="K278" s="4">
         <v>0</v>
       </c>
-      <c r="L278" s="4">
-        <v>0</v>
+      <c r="L278" s="1">
+        <v>1</v>
       </c>
       <c r="M278" s="4">
         <v>0</v>
@@ -17648,5 +17656,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>